--- a/factor/vehicle_age_ratio_v1.xlsx
+++ b/factor/vehicle_age_ratio_v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dense_traffic_emi\factor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\emi_calculation\factor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400CD1A9-8E44-4264-987E-5CF320CC41EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC67215D-18FE-4C78-8908-3AC678788B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4489F708-40CD-48E8-ADA7-B8FE96640DF6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4489F708-40CD-48E8-ADA7-B8FE96640DF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>03_van</t>
   </si>
   <si>
-    <t>04_bus</t>
-  </si>
-  <si>
     <t>05_LightTruck</t>
   </si>
   <si>
@@ -61,6 +58,10 @@
   </si>
   <si>
     <t>07_SpecialVehicle</t>
+  </si>
+  <si>
+    <t>04_bus</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -72,7 +73,7 @@
     <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -518,10 +519,10 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
@@ -533,7 +534,7 @@
     <col min="8" max="8" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -547,19 +548,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="16.5">
+    </row>
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2004</v>
       </c>
@@ -585,7 +586,7 @@
         <v>4.0338820521016464E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2005</v>
       </c>
@@ -611,7 +612,7 @@
         <v>3.8996324116988973E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2006</v>
       </c>
@@ -637,7 +638,7 @@
         <v>5.4339140163017418E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2007</v>
       </c>
@@ -663,7 +664,7 @@
         <v>9.7810452293431351E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2008</v>
       </c>
@@ -689,7 +690,7 @@
         <v>1.1091577433274732E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.5">
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2009</v>
       </c>
@@ -715,7 +716,7 @@
         <v>1.0260508230781524E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5">
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2010</v>
       </c>
@@ -741,7 +742,7 @@
         <v>1.4863353044590058E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2011</v>
       </c>
@@ -767,7 +768,7 @@
         <v>2.6082787278248361E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.5">
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2012</v>
       </c>
@@ -793,7 +794,7 @@
         <v>3.221991369665974E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2013</v>
       </c>
@@ -819,7 +820,7 @@
         <v>3.0046348090139043E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2014</v>
       </c>
@@ -845,7 +846,7 @@
         <v>3.5640083106920246E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2015</v>
       </c>
@@ -871,7 +872,7 @@
         <v>4.2576314527728941E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2016</v>
       </c>
@@ -897,7 +898,7 @@
         <v>5.0279686750839062E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2017</v>
       </c>
@@ -923,7 +924,7 @@
         <v>6.1019657983058972E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2018</v>
       </c>
@@ -949,7 +950,7 @@
         <v>6.9841777209525335E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2019</v>
       </c>
@@ -975,7 +976,7 @@
         <v>9.5413137286239416E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>2020</v>
       </c>
@@ -1001,7 +1002,7 @@
         <v>9.6499920089499758E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2021</v>
       </c>
@@ -1027,7 +1028,7 @@
         <v>0.11340898194022694</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>2022</v>
       </c>
@@ -1053,7 +1054,7 @@
         <v>0.12811251398433754</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2023</v>
       </c>
@@ -1079,7 +1080,7 @@
         <v>7.9079431037238287E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>2024</v>
       </c>
